--- a/biology/Zoologie/Étang_d'Ingril/Étang_d'Ingril.xlsx
+++ b/biology/Zoologie/Étang_d'Ingril/Étang_d'Ingril.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tang_d%27Ingril</t>
+          <t>Étang_d'Ingril</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'étang d'Ingril est un étang appartenant au complexe lagunaire des étangs palavasiens. Il se trouve sur la côte languedocienne entre les communes de Vic-la-Gardiole et Frontignan.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tang_d%27Ingril</t>
+          <t>Étang_d'Ingril</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une longueur d'environ 7 km, il est séparé de la mer Méditerranée par un cordon de dunes sur lequel se trouve la station balnéaire de Frontignan-plage. Il se situe environ à mi-chemin entre Montpellier et Sète.
 L'étang d'Ingril est séparé en deux parties (bassin nord et bassin sud) par le canal du Rhône à Sète.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tang_d%27Ingril</t>
+          <t>Étang_d'Ingril</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anciens marais salants sont devenus une réserve naturelle pour la faune et la flore des zones humides. On y trouve des flamants roses (Phoenicopterus ruber), des hérons, des grues, de la salicorne et de la sansouire.
-C'est un site classé (avec le bois des Aresquiers, l'étang de Vic et l'étang de la Pierre Blanche) en 1978 pour son caractère pittoresque[1].
+C'est un site classé (avec le bois des Aresquiers, l'étang de Vic et l'étang de la Pierre Blanche) en 1978 pour son caractère pittoresque.
 </t>
         </is>
       </c>
